--- a/designs/documents/設計書_設定エディタ.xlsx
+++ b/designs/documents/設計書_設定エディタ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\outif\Documents\kaname_project\SatisfactoryFlowSimulator\designs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\outif\Documents\kaname_project\SatisfactoryFlowSimulator\workspace\designs\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCC8943-4135-4405-9295-6D53E369D829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FB1484-37CD-4506-8543-6892961E9205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="792" xr2:uid="{3FBF6B4D-C44B-4BBD-866D-F5F9F7979C44}"/>
+    <workbookView xWindow="30810" yWindow="1245" windowWidth="22080" windowHeight="13215" tabRatio="792" xr2:uid="{3FBF6B4D-C44B-4BBD-866D-F5F9F7979C44}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="レシピセクション" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,22 +73,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本書では Satisfactory制作フローシミュレータを「本ツール」と表記する。</t>
-    <rPh sb="0" eb="2">
-      <t>ホンショ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
       <t>モクジ</t>
@@ -2725,6 +2708,19 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本書では Satisfactory製作フローシミュレータを「本ツール」と表記する。</t>
+    <rPh sb="0" eb="2">
+      <t>ホンショ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3206,18 +3202,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3245,14 +3229,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3282,15 +3287,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -20221,9 +20217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4587CBB-8C54-4DDF-89B1-B0874824BD5B}">
   <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -20257,12 +20251,12 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="24" x14ac:dyDescent="0.4">
@@ -20272,155 +20266,155 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="24" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -20451,374 +20445,412 @@
   <sheetData>
     <row r="1" spans="2:13" ht="30" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+        <v>255</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+        <v>255</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+        <v>255</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+        <v>255</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+        <v>255</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+        <v>255</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B15" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+        <v>255</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
+        <v>255</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B17" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
+        <v>255</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C18" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B19" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+        <v>255</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+        <v>255</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B21" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+        <v>255</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
+        <v>255</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:M17"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="K22:M22"/>
@@ -20835,44 +20867,6 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="K21:M21"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:M14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20892,12 +20886,12 @@
   <sheetData>
     <row r="1" spans="2:15" ht="30" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="24" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -20915,77 +20909,77 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:15" ht="24" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -21003,72 +20997,72 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.4">
       <c r="D32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -21091,27 +21085,27 @@
   <sheetData>
     <row r="1" spans="2:2" ht="30" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -21134,60 +21128,60 @@
   <sheetData>
     <row r="1" spans="2:11" ht="30" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="K12" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
       <c r="J13" s="7">
         <v>7</v>
       </c>
@@ -21197,12 +21191,12 @@
       <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="7">
         <v>9</v>
       </c>
@@ -21212,12 +21206,12 @@
       <c r="C15" s="7">
         <v>3</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="7">
         <v>6</v>
       </c>
@@ -21225,154 +21219,166 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B18" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="22" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B19" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B20" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28" t="s">
+      <c r="K20" s="27"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B21" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B22" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B20" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="28"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B21" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="K21" s="28"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B22" s="27" t="s">
+      <c r="K22" s="27"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B23" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="28"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28" t="s">
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K23" s="28"/>
+      <c r="K23" s="27"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C27" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C29" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
@@ -21389,18 +21395,6 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:K23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21421,62 +21415,62 @@
   <sheetData>
     <row r="1" spans="2:2" ht="30" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C24" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C26" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="24" x14ac:dyDescent="0.4">
       <c r="B29" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -21491,658 +21485,595 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B45" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C51" s="8"/>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H51" s="42"/>
-      <c r="I51" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="42"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" s="32"/>
+      <c r="I51" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="32"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C52" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H52" s="32"/>
-      <c r="I52" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="32"/>
+        <v>89</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="34"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" s="35"/>
+      <c r="I52" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="35"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C53" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H53" s="32"/>
-      <c r="I53" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="32"/>
+        <v>90</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="34"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" s="35"/>
+      <c r="I53" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="35"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C54" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H54" s="32"/>
-      <c r="I54" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="32"/>
+        <v>117</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="34"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" s="35"/>
+      <c r="I54" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="35"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C55" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="31"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H55" s="32"/>
-      <c r="I55" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="32"/>
+        <v>118</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="34"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55" s="35"/>
+      <c r="I55" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="35"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C56" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" s="31"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H56" s="32"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="32"/>
+        <v>120</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="34"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" s="35"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="35"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C57" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H57" s="32"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="34"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H57" s="35"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="35"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C58" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="E58" s="31"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H58" s="32"/>
-      <c r="I58" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="36"/>
+        <v>124</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" s="35"/>
+      <c r="I58" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="39"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C59" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E59" s="31"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H59" s="32"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="39"/>
+        <v>126</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="34"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" s="35"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="42"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C60" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60" s="31"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H60" s="32"/>
-      <c r="I60" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="32"/>
+        <v>128</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="34"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H60" s="35"/>
+      <c r="I60" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="35"/>
     </row>
     <row r="61" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C61" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E61" s="31"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H61" s="32"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="32"/>
+        <v>130</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="34"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" s="35"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="35"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B63" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C71" s="8"/>
-      <c r="D71" s="40" t="s">
+      <c r="D71" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E71" s="41"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H71" s="42"/>
-      <c r="I71" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="42"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" s="32"/>
+      <c r="I71" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="32"/>
     </row>
     <row r="72" spans="3:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C72" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E72" s="31"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H72" s="32"/>
-      <c r="I72" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="J72" s="31"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="32"/>
+        <v>89</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E72" s="34"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H72" s="35"/>
+      <c r="I72" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="35"/>
     </row>
     <row r="73" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C73" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="E73" s="31"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="H73" s="32"/>
-      <c r="I73" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="32"/>
+        <v>90</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E73" s="34"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="H73" s="35"/>
+      <c r="I73" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="35"/>
     </row>
     <row r="74" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C74" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="E74" s="31"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="H74" s="32"/>
-      <c r="I74" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="J74" s="31"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="32"/>
+        <v>117</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" s="34"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="H74" s="35"/>
+      <c r="I74" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="35"/>
     </row>
     <row r="75" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C75" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E75" s="31"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="H75" s="32"/>
-      <c r="I75" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J75" s="31"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="32"/>
+        <v>118</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="34"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="H75" s="35"/>
+      <c r="I75" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="35"/>
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C76" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E76" s="31"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="H76" s="32"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="32"/>
+        <v>120</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E76" s="34"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H76" s="35"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="35"/>
     </row>
     <row r="77" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C77" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="E77" s="31"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="H77" s="32"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E77" s="34"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="H77" s="35"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="35"/>
     </row>
     <row r="78" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C78" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="E78" s="31"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H78" s="32"/>
-      <c r="I78" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="J78" s="31"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="32"/>
+        <v>124</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E78" s="34"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H78" s="35"/>
+      <c r="I78" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="35"/>
     </row>
     <row r="79" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C79" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E79" s="31"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H79" s="32"/>
-      <c r="I79" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="J79" s="31"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="32"/>
+        <v>126</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E79" s="34"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H79" s="35"/>
+      <c r="I79" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="35"/>
     </row>
     <row r="80" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C80" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D80" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="E80" s="31"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="H80" s="32"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="32"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="H80" s="35"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="35"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C81" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="E81" s="31"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="H81" s="32"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="31"/>
-      <c r="K81" s="31"/>
-      <c r="L81" s="32"/>
+        <v>131</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E81" s="34"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="H81" s="35"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="35"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C82" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="E82" s="31"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="H82" s="32"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="32"/>
+        <v>163</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82" s="34"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="H82" s="35"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="35"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C83" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="E83" s="31"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="H83" s="32"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="31"/>
-      <c r="L83" s="32"/>
+        <v>164</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" s="34"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="H83" s="35"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="35"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C84" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D84" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E84" s="31"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H84" s="32"/>
-      <c r="I84" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="J84" s="31"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="32"/>
+        <v>165</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="34"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H84" s="35"/>
+      <c r="I84" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="35"/>
     </row>
     <row r="85" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C85" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D85" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E85" s="31"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H85" s="32"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="31"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="32"/>
+        <v>166</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E85" s="34"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H85" s="35"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="35"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B87" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C89" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C91" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C93" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C95" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B98" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C100" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="I58:L59"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:L84"/>
     <mergeCell ref="I80:L80"/>
     <mergeCell ref="I81:L81"/>
     <mergeCell ref="I82:L82"/>
@@ -22157,6 +22088,69 @@
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="D81:F81"/>
     <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="I58:L59"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:L52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22177,51 +22171,51 @@
   <sheetData>
     <row r="1" spans="2:13" ht="30" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C8" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="44"/>
       <c r="F8" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="44"/>
       <c r="H8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8" s="44"/>
       <c r="L8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.4">
@@ -22277,7 +22271,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="44"/>
@@ -22288,223 +22282,241 @@
       <c r="J12" s="43"/>
       <c r="K12" s="44"/>
       <c r="L12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B14" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B14" s="22" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B15" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B15" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="M15" s="28"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="27" t="s">
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B17" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28" t="s">
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B18" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B19" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B21" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="M16" s="28"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B17" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" s="28"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B18" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="M18" s="28"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="M19" s="28"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B20" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="M20" s="28"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="M21" s="28"/>
+      <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B22" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28" t="s">
+      <c r="B22" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="M22" s="28"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C26" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C28" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
@@ -22517,30 +22529,12 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:K14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22563,87 +22557,87 @@
   <sheetData>
     <row r="1" spans="2:2" ht="30" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C30" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C32" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C34" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="24" x14ac:dyDescent="0.4">
       <c r="B37" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -22658,265 +22652,265 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C57" s="8"/>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="41"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H57" s="42"/>
-      <c r="I57" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="42"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" s="32"/>
+      <c r="I57" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="32"/>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C58" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="E58" s="31"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="H58" s="32"/>
-      <c r="I58" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="32"/>
+        <v>89</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" s="35"/>
+      <c r="I58" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="35"/>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C59" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="E59" s="31"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="H59" s="32"/>
-      <c r="I59" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="32"/>
+        <v>90</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="E59" s="34"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" s="35"/>
+      <c r="I59" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="35"/>
     </row>
     <row r="60" spans="3:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C60" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="E60" s="31"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="H60" s="32"/>
-      <c r="I60" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="32"/>
+        <v>117</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E60" s="34"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H60" s="35"/>
+      <c r="I60" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="35"/>
     </row>
     <row r="61" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C61" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="E61" s="31"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="H61" s="32"/>
-      <c r="I61" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="32"/>
+        <v>118</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E61" s="34"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H61" s="35"/>
+      <c r="I61" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="35"/>
     </row>
     <row r="62" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C62" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="E62" s="31"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="H62" s="32"/>
-      <c r="I62" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="32"/>
+        <v>120</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="E62" s="34"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H62" s="35"/>
+      <c r="I62" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="35"/>
     </row>
     <row r="63" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C63" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="H63" s="32"/>
-      <c r="I63" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" s="34"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" s="35"/>
+      <c r="I63" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="35"/>
     </row>
     <row r="64" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C64" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="E64" s="31"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="H64" s="32"/>
-      <c r="I64" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="32"/>
+        <v>124</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="E64" s="34"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H64" s="35"/>
+      <c r="I64" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="35"/>
     </row>
     <row r="65" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C65" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D65" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="E65" s="34"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="30" t="s">
+      <c r="H65" s="35"/>
+      <c r="I65" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="H65" s="32"/>
-      <c r="I65" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="32"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="35"/>
     </row>
     <row r="66" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C66" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D66" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="E66" s="34"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" s="35"/>
+      <c r="I66" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="E66" s="31"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H66" s="32"/>
-      <c r="I66" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="32"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="35"/>
     </row>
     <row r="67" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C67" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D67" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="E67" s="34"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H67" s="35"/>
+      <c r="I67" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="E67" s="31"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H67" s="32"/>
-      <c r="I67" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="32"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="35"/>
     </row>
     <row r="70" spans="2:12" ht="24" x14ac:dyDescent="0.4">
       <c r="B70" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -22931,170 +22925,170 @@
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B80" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B89" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C95" s="8"/>
-      <c r="D95" s="40" t="s">
+      <c r="D95" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E95" s="41"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H95" s="42"/>
-      <c r="I95" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J95" s="41"/>
-      <c r="K95" s="41"/>
-      <c r="L95" s="42"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H95" s="32"/>
+      <c r="I95" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J95" s="31"/>
+      <c r="K95" s="31"/>
+      <c r="L95" s="32"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C96" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D96" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E96" s="31"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H96" s="32"/>
-      <c r="I96" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="J96" s="31"/>
-      <c r="K96" s="31"/>
-      <c r="L96" s="32"/>
+        <v>89</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" s="34"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H96" s="35"/>
+      <c r="I96" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="J96" s="34"/>
+      <c r="K96" s="34"/>
+      <c r="L96" s="35"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C97" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D97" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E97" s="31"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H97" s="32"/>
-      <c r="I97" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="J97" s="31"/>
-      <c r="K97" s="31"/>
-      <c r="L97" s="32"/>
+        <v>90</v>
+      </c>
+      <c r="D97" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="34"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H97" s="35"/>
+      <c r="I97" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="J97" s="34"/>
+      <c r="K97" s="34"/>
+      <c r="L97" s="35"/>
     </row>
     <row r="98" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C98" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="E98" s="31"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H98" s="32"/>
-      <c r="I98" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="J98" s="31"/>
-      <c r="K98" s="31"/>
-      <c r="L98" s="32"/>
+        <v>117</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="E98" s="34"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H98" s="35"/>
+      <c r="I98" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="J98" s="34"/>
+      <c r="K98" s="34"/>
+      <c r="L98" s="35"/>
     </row>
     <row r="99" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C99" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D99" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E99" s="31"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H99" s="32"/>
-      <c r="I99" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="J99" s="31"/>
-      <c r="K99" s="31"/>
-      <c r="L99" s="32"/>
+        <v>118</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E99" s="34"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H99" s="35"/>
+      <c r="I99" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="J99" s="34"/>
+      <c r="K99" s="34"/>
+      <c r="L99" s="35"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C100" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D100" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="E100" s="31"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H100" s="32"/>
-      <c r="I100" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="J100" s="35"/>
-      <c r="K100" s="35"/>
-      <c r="L100" s="36"/>
+        <v>120</v>
+      </c>
+      <c r="D100" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E100" s="34"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H100" s="35"/>
+      <c r="I100" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="J100" s="38"/>
+      <c r="K100" s="38"/>
+      <c r="L100" s="39"/>
     </row>
     <row r="101" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C101" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="E101" s="31"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H101" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E101" s="34"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H101" s="35"/>
       <c r="I101" s="45"/>
       <c r="J101" s="46"/>
       <c r="K101" s="46"/>
@@ -23102,17 +23096,17 @@
     </row>
     <row r="102" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C102" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D102" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="E102" s="31"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H102" s="32"/>
+        <v>124</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E102" s="34"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H102" s="35"/>
       <c r="I102" s="45"/>
       <c r="J102" s="46"/>
       <c r="K102" s="46"/>
@@ -23120,17 +23114,17 @@
     </row>
     <row r="103" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C103" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="E103" s="31"/>
-      <c r="F103" s="32"/>
-      <c r="G103" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H103" s="32"/>
+        <v>126</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E103" s="34"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H103" s="35"/>
       <c r="I103" s="45"/>
       <c r="J103" s="46"/>
       <c r="K103" s="46"/>
@@ -23138,17 +23132,17 @@
     </row>
     <row r="104" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C104" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D104" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="E104" s="31"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H104" s="32"/>
+        <v>129</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E104" s="34"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H104" s="35"/>
       <c r="I104" s="45"/>
       <c r="J104" s="46"/>
       <c r="K104" s="46"/>
@@ -23156,412 +23150,331 @@
     </row>
     <row r="105" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C105" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D105" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E105" s="31"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H105" s="32"/>
-      <c r="I105" s="37"/>
-      <c r="J105" s="38"/>
-      <c r="K105" s="38"/>
-      <c r="L105" s="39"/>
+        <v>131</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="E105" s="34"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H105" s="35"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="41"/>
+      <c r="K105" s="41"/>
+      <c r="L105" s="42"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C106" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D106" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="E106" s="31"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H106" s="32"/>
-      <c r="I106" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="J106" s="31"/>
-      <c r="K106" s="31"/>
-      <c r="L106" s="32"/>
+        <v>163</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E106" s="34"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H106" s="35"/>
+      <c r="I106" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="J106" s="34"/>
+      <c r="K106" s="34"/>
+      <c r="L106" s="35"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B109" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C118" s="8"/>
-      <c r="D118" s="40" t="s">
+      <c r="D118" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E118" s="41"/>
-      <c r="F118" s="42"/>
-      <c r="G118" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H118" s="42"/>
-      <c r="I118" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J118" s="41"/>
-      <c r="K118" s="41"/>
-      <c r="L118" s="42"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H118" s="32"/>
+      <c r="I118" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J118" s="31"/>
+      <c r="K118" s="31"/>
+      <c r="L118" s="32"/>
     </row>
     <row r="119" spans="3:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C119" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D119" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E119" s="31"/>
-      <c r="F119" s="32"/>
-      <c r="G119" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H119" s="32"/>
-      <c r="I119" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="J119" s="31"/>
-      <c r="K119" s="31"/>
-      <c r="L119" s="32"/>
+        <v>89</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E119" s="34"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H119" s="35"/>
+      <c r="I119" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="J119" s="34"/>
+      <c r="K119" s="34"/>
+      <c r="L119" s="35"/>
     </row>
     <row r="120" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C120" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D120" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E120" s="31"/>
-      <c r="F120" s="32"/>
-      <c r="G120" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="H120" s="32"/>
-      <c r="I120" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="J120" s="31"/>
-      <c r="K120" s="31"/>
-      <c r="L120" s="32"/>
+        <v>90</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="34"/>
+      <c r="F120" s="35"/>
+      <c r="G120" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="H120" s="35"/>
+      <c r="I120" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="J120" s="34"/>
+      <c r="K120" s="34"/>
+      <c r="L120" s="35"/>
     </row>
     <row r="121" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C121" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D121" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="E121" s="31"/>
-      <c r="F121" s="32"/>
-      <c r="G121" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="H121" s="32"/>
-      <c r="I121" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="J121" s="31"/>
-      <c r="K121" s="31"/>
-      <c r="L121" s="32"/>
+        <v>117</v>
+      </c>
+      <c r="D121" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="E121" s="34"/>
+      <c r="F121" s="35"/>
+      <c r="G121" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="H121" s="35"/>
+      <c r="I121" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="J121" s="34"/>
+      <c r="K121" s="34"/>
+      <c r="L121" s="35"/>
     </row>
     <row r="122" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C122" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D122" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E122" s="34"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H122" s="35"/>
+      <c r="I122" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E122" s="31"/>
-      <c r="F122" s="32"/>
-      <c r="G122" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H122" s="32"/>
-      <c r="I122" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="J122" s="31"/>
-      <c r="K122" s="31"/>
-      <c r="L122" s="32"/>
+      <c r="J122" s="34"/>
+      <c r="K122" s="34"/>
+      <c r="L122" s="35"/>
     </row>
     <row r="123" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C123" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D123" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D123" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E123" s="34"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H123" s="35"/>
+      <c r="I123" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="E123" s="31"/>
-      <c r="F123" s="32"/>
-      <c r="G123" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H123" s="32"/>
-      <c r="I123" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="J123" s="31"/>
-      <c r="K123" s="31"/>
-      <c r="L123" s="32"/>
+      <c r="J123" s="34"/>
+      <c r="K123" s="34"/>
+      <c r="L123" s="35"/>
     </row>
     <row r="124" spans="3:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C124" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D124" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E124" s="31"/>
-      <c r="F124" s="32"/>
-      <c r="G124" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="H124" s="32"/>
-      <c r="I124" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="J124" s="31"/>
-      <c r="K124" s="31"/>
-      <c r="L124" s="32"/>
+        <v>123</v>
+      </c>
+      <c r="D124" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E124" s="34"/>
+      <c r="F124" s="35"/>
+      <c r="G124" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H124" s="35"/>
+      <c r="I124" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="J124" s="34"/>
+      <c r="K124" s="34"/>
+      <c r="L124" s="35"/>
     </row>
     <row r="125" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C125" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D125" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="E125" s="31"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="H125" s="32"/>
-      <c r="I125" s="30"/>
-      <c r="J125" s="31"/>
-      <c r="K125" s="31"/>
-      <c r="L125" s="32"/>
+        <v>125</v>
+      </c>
+      <c r="D125" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="E125" s="34"/>
+      <c r="F125" s="35"/>
+      <c r="G125" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="H125" s="35"/>
+      <c r="I125" s="33"/>
+      <c r="J125" s="34"/>
+      <c r="K125" s="34"/>
+      <c r="L125" s="35"/>
     </row>
     <row r="126" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C126" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D126" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="E126" s="34"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H126" s="35"/>
+      <c r="I126" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="E126" s="31"/>
-      <c r="F126" s="32"/>
-      <c r="G126" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H126" s="32"/>
-      <c r="I126" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="J126" s="31"/>
-      <c r="K126" s="31"/>
-      <c r="L126" s="32"/>
+      <c r="J126" s="34"/>
+      <c r="K126" s="34"/>
+      <c r="L126" s="35"/>
     </row>
     <row r="127" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C127" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D127" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E127" s="31"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="H127" s="32"/>
-      <c r="I127" s="30"/>
-      <c r="J127" s="31"/>
-      <c r="K127" s="31"/>
-      <c r="L127" s="32"/>
+        <v>129</v>
+      </c>
+      <c r="D127" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="34"/>
+      <c r="F127" s="35"/>
+      <c r="G127" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H127" s="35"/>
+      <c r="I127" s="33"/>
+      <c r="J127" s="34"/>
+      <c r="K127" s="34"/>
+      <c r="L127" s="35"/>
     </row>
     <row r="128" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C128" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D128" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="E128" s="31"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H128" s="32"/>
-      <c r="I128" s="30"/>
-      <c r="J128" s="31"/>
-      <c r="K128" s="31"/>
-      <c r="L128" s="32"/>
+        <v>131</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="E128" s="34"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H128" s="35"/>
+      <c r="I128" s="33"/>
+      <c r="J128" s="34"/>
+      <c r="K128" s="34"/>
+      <c r="L128" s="35"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B130" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C132" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D133" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C134" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D135" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C136" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D137" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C138" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D139" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C140" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D141" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B143" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="145" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C145" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D146" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="I96:L96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:L97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="I98:L98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:L99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="I106:L106"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="I100:L105"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="I118:L118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="I119:L119"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="I122:L122"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="I120:L120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="I121:L121"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="I125:L125"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="I123:L123"/>
     <mergeCell ref="D128:F128"/>
     <mergeCell ref="G128:H128"/>
     <mergeCell ref="I128:L128"/>
@@ -23578,6 +23491,87 @@
     <mergeCell ref="D124:F124"/>
     <mergeCell ref="G124:H124"/>
     <mergeCell ref="I124:L124"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="I125:L125"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="I123:L123"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="I122:L122"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="I120:L120"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="I121:L121"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:L118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:L119"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="I106:L106"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I100:L105"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:L99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:L97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:L96"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="G67:H67"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
